--- a/resources/anki_study.xlsx
+++ b/resources/anki_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaochengyi/Documents/Study/studyByCode/anki卡包/buildAnki/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C8F83EED-F869-7545-96AD-AB0DE85ABD65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{545B16CE-69C7-F741-9850-6374FD224F81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1260" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="net" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="English" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="730" uniqueCount="480">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="778" uniqueCount="518">
   <si>
     <t>ABC</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1943,6 +1944,159 @@
   </si>
   <si>
     <t>特殊的 Duplex 流，继承自 Duplex，其内部能够变更正在传输的数据</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>char 型是什么</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>char 有三种，signed char/unsigned char/char，其中 char 在不同的编译器表现为不同的类型，可能是 signed 或 unsigned</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符 'a' 本质上也是一个整数，只是字符代表的值是 0~127，可以用 char 表示一个不大的整数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数类数据类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举型 enum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符型 char/unsigned char/signed char</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型 signed short int / unsigned short int / signed int / unsigned int / signed long int / unsigned long int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>long double</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 进制中 10 为基数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 进制中 8 为基数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 进制中 2 为基数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10进制转 2 进制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将 10 进制数除以 2，得到每个余数与每个商，并将商继续除以余数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>余数的倒序就是 2 进制值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>char 本质上就是一个 8 位的数字，所以在 C 中是整数类数据类型。signed char 的范围是 -127 ~127，unsigned char 范围是 0 ~ 255。首位是 1，代表是负数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>补码介绍</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>模 是指一个计量系统的计数范围，比如时钟的计量范围是 0-12，模 = 12。对 6 点 - 2 小时 = 6 + 12 - 2 = 6 + 10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据模，在 8 位计算中，模 = 2 的 8 次方。通过模，可以将减法转成加法，简化设计</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>正数的补码 = 正数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>原码是什么</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>原码是在数值前面增加一个符号位，即最高位为符号位。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数为 0，负数为 1。0 有两个表示：+0 和 -0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>其余位就是数值的大小</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C 语言中的位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>位是具有大量内存空间的运行环境的数据存储单元，可保存具有两种取值的对象</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>位可取两种值，其中一种是 0，将位设置为0 以外的值，成为设置位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>typedef 声明</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>typedef unsigned size_t;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>typedef 是一种 类型的定义方式，type define</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sizeof 运算符</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够计算对应元素的大小，以字节为单位，一个 char 就是一个字节，就是 8 个位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于数组，则可以得到数组整体的大小。Int a[5]; 
+元素个数 = sizeof(a) / size(a[0])</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sizeof 数组时，可以得到整个数组元素占用的位数。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>负数的补码 = 原码除了符号位外每一位都取反，然后 + 1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2919,7 +3073,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3155,7 +3309,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3637,11 +3791,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5EE887-C51C-9548-BDB8-23CA01469EBA}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3926,6 +4080,200 @@
         <v>31</v>
       </c>
     </row>
+    <row r="14" spans="1:11" ht="119">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="85">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="51">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="85">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="51">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="51">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="34">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="68">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3936,7 +4284,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8D41E8-9609-3342-8DF8-D9B2274FE4B6}">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+    <sheetView zoomScale="179" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/resources/anki_study.xlsx
+++ b/resources/anki_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaochengyi/Documents/Study/studyByCode/anki卡包/buildAnki/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{545B16CE-69C7-F741-9850-6374FD224F81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C8C96E07-FF61-A447-8C72-2A6C4A78DEBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="860" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="net" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="English" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="778" uniqueCount="518">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="783" uniqueCount="523">
   <si>
     <t>ABC</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -2097,6 +2096,26 @@
   </si>
   <si>
     <t>负数的补码 = 原码除了符号位外每一位都取反，然后 + 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>按位操作的逻辑运算</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑与 x&amp;y，每个位都进行计算，都为 1 则为 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑或 x|y，有一个为 1 则为 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑异或，有且只有一个为 1，则为 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3791,11 +3810,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5EE887-C51C-9548-BDB8-23CA01469EBA}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4272,6 +4291,26 @@
       </c>
       <c r="J23" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="34">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
